--- a/Output/1988/Illinois/Illinois.xlsx
+++ b/Output/1988/Illinois/Illinois.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7125" uniqueCount="1262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7110" uniqueCount="1262">
   <si>
     <t>State</t>
   </si>
@@ -5718,8 +5718,8 @@
       <c r="N21" s="1">
         <v>8058</v>
       </c>
-      <c r="O21" t="s">
-        <v>28</v>
+      <c r="O21" s="1">
+        <v>2019</v>
       </c>
       <c r="P21">
         <v>68</v>
@@ -9625,8 +9625,8 @@
       <c r="J74" t="s">
         <v>28</v>
       </c>
-      <c r="K74" t="s">
-        <v>28</v>
+      <c r="K74" s="1">
+        <v>95488</v>
       </c>
       <c r="L74" s="1">
         <v>1400</v>
@@ -10223,8 +10223,8 @@
       <c r="L82">
         <v>530</v>
       </c>
-      <c r="M82" t="s">
-        <v>28</v>
+      <c r="M82">
+        <v>107</v>
       </c>
       <c r="N82">
         <v>318</v>
@@ -11845,8 +11845,8 @@
       <c r="J104" t="s">
         <v>28</v>
       </c>
-      <c r="K104" t="s">
-        <v>28</v>
+      <c r="K104">
+        <v>470</v>
       </c>
       <c r="L104">
         <v>260</v>
@@ -13556,8 +13556,8 @@
       <c r="L127">
         <v>902</v>
       </c>
-      <c r="M127" t="s">
-        <v>28</v>
+      <c r="M127">
+        <v>718</v>
       </c>
       <c r="N127" s="1">
         <v>2130</v>
@@ -16735,8 +16735,8 @@
       <c r="K170" s="1">
         <v>1125</v>
       </c>
-      <c r="L170" t="s">
-        <v>28</v>
+      <c r="L170">
+        <v>577</v>
       </c>
       <c r="M170" s="1">
         <v>1325</v>
@@ -20062,8 +20062,8 @@
       <c r="J215" t="s">
         <v>28</v>
       </c>
-      <c r="K215" t="s">
-        <v>28</v>
+      <c r="K215">
+        <v>47</v>
       </c>
       <c r="L215">
         <v>11</v>
@@ -21548,8 +21548,8 @@
       <c r="L235">
         <v>99</v>
       </c>
-      <c r="M235" t="s">
-        <v>28</v>
+      <c r="M235">
+        <v>197</v>
       </c>
       <c r="N235">
         <v>139</v>
@@ -22356,8 +22356,8 @@
       <c r="J246" t="s">
         <v>28</v>
       </c>
-      <c r="K246" t="s">
-        <v>28</v>
+      <c r="K246">
+        <v>159</v>
       </c>
       <c r="L246">
         <v>53</v>
@@ -23768,8 +23768,8 @@
       <c r="L265">
         <v>851</v>
       </c>
-      <c r="M265" t="s">
-        <v>28</v>
+      <c r="M265" s="1">
+        <v>5027</v>
       </c>
       <c r="N265">
         <v>274</v>
@@ -24724,8 +24724,8 @@
       <c r="J278" t="s">
         <v>28</v>
       </c>
-      <c r="K278" t="s">
-        <v>28</v>
+      <c r="K278" s="1">
+        <v>1247</v>
       </c>
       <c r="L278" t="s">
         <v>38</v>
@@ -28057,8 +28057,8 @@
       <c r="K323">
         <v>133</v>
       </c>
-      <c r="L323" t="s">
-        <v>28</v>
+      <c r="L323">
+        <v>69</v>
       </c>
       <c r="M323">
         <v>503</v>
@@ -30126,8 +30126,8 @@
       <c r="J351" t="s">
         <v>28</v>
       </c>
-      <c r="K351" t="s">
-        <v>28</v>
+      <c r="K351">
+        <v>29</v>
       </c>
       <c r="L351">
         <v>75</v>
@@ -30200,8 +30200,8 @@
       <c r="J352" t="s">
         <v>28</v>
       </c>
-      <c r="K352" t="s">
-        <v>28</v>
+      <c r="K352">
+        <v>221</v>
       </c>
       <c r="L352">
         <v>507</v>
@@ -30274,8 +30274,8 @@
       <c r="J353" t="s">
         <v>28</v>
       </c>
-      <c r="K353" t="s">
-        <v>28</v>
+      <c r="K353">
+        <v>508</v>
       </c>
       <c r="L353">
         <v>270</v>
